--- a/data/trans_orig/CONS_ANTIDE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANTIDE-Edad-trans_orig.xlsx
@@ -3728,12 +3728,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3743,12 +3743,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3841,12 +3841,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>231470</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3856,12 +3856,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">

--- a/data/trans_orig/CONS_ANTIDE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANTIDE-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos en País Vasco</t>
+          <t>Consumo de antidepresivos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3533,7 +3533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos en Andalucia</t>
+          <t>Consumo de antidepresivos en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6520,7 +6520,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos en C.Valenciana</t>
+          <t>Consumo de antidepresivos en C.Valenciana (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -9507,7 +9507,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos en Barcelona</t>
+          <t>Consumo de antidepresivos en Barcelona (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_ANTIDE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANTIDE-Edad-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>990</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>243</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1274</t>
+          <t>2690</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>788</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>271</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2084</t>
+          <t>1821</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>1132</t>
+          <t>1778</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>808</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>2444</t>
+          <t>3662</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>2,56%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62354</t>
+          <t>75891</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61542</t>
+          <t>74191</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62712</t>
+          <t>76638</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,27%</t>
+          <t>98,71%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,97%</t>
+          <t>96,5%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,83%</t>
+          <t>99,68%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>61822</t>
+          <t>65454</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>60409</t>
+          <t>64421</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62255</t>
+          <t>65971</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,93%</t>
+          <t>98,81%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>96,67%</t>
+          <t>97,25%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,62%</t>
+          <t>99,59%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>124177</t>
+          <t>141345</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>122865</t>
+          <t>139461</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>124737</t>
+          <t>142315</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>98,76%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>98,05%</t>
+          <t>97,44%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,54%</t>
+          <t>99,44%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>114</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1470</t>
+          <t>655</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,32 +1114,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1139</t>
+          <t>1002</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>408</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>1115</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>481</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>2906</t>
+          <t>2433</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>1,7%</t>
         </is>
       </c>
     </row>
@@ -1192,27 +1192,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>68906</t>
+          <t>74869</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>67695</t>
+          <t>74328</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,63%</t>
+          <t>99,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>99,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>61344</t>
+          <t>67046</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>60083</t>
+          <t>65924</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>61981</t>
+          <t>67640</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>98,53%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,16%</t>
+          <t>96,88%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,2%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>130249</t>
+          <t>141916</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>128741</t>
+          <t>140598</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>131026</t>
+          <t>142550</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>98,94%</t>
+          <t>99,22%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,53%</t>
+          <t>99,66%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1422,32 +1422,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>1127</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>423</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2146</t>
+          <t>2745</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,32 +1457,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2190</t>
+          <t>2263</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1255</t>
+          <t>1373</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3636</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1492,32 +1492,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>3098</t>
+          <t>3391</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1907</t>
+          <t>2029</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>4712</t>
+          <t>5474</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,55%</t>
         </is>
       </c>
     </row>
@@ -1535,32 +1535,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>93788</t>
+          <t>102833</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92549</t>
+          <t>101215</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>94361</t>
+          <t>103537</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>98,92%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,73%</t>
+          <t>97,36%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,65%</t>
+          <t>99,59%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,32 +1570,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>95315</t>
+          <t>108452</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>93869</t>
+          <t>106440</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>96250</t>
+          <t>109342</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,75%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,27%</t>
+          <t>96,14%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>98,76%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>189102</t>
+          <t>211284</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>187488</t>
+          <t>209201</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>190293</t>
+          <t>212646</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>98,42%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>99,05%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1765,32 +1765,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3652</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2243</t>
+          <t>2370</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5574</t>
+          <t>5863</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,32 +1800,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4806</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3253</t>
+          <t>2856</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7412</t>
+          <t>6157</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>8458</t>
+          <t>8037</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>6042</t>
+          <t>5921</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>11245</t>
+          <t>10827</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,64%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +1878,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>135762</t>
+          <t>141040</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>133840</t>
+          <t>138915</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>137171</t>
+          <t>142408</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,0%</t>
+          <t>95,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>98,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,32 +1913,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>133169</t>
+          <t>148245</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>130563</t>
+          <t>146387</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>134722</t>
+          <t>149688</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,52%</t>
+          <t>97,18%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>94,63%</t>
+          <t>95,96%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>97,64%</t>
+          <t>98,13%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>268932</t>
+          <t>289284</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>266145</t>
+          <t>286494</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>271348</t>
+          <t>291400</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,95%</t>
+          <t>97,3%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,95%</t>
+          <t>96,36%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>98,01%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2108,32 +2108,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4700</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2955</t>
+          <t>2574</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7333</t>
+          <t>6295</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2143,32 +2143,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6918</t>
+          <t>7474</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4880</t>
+          <t>5453</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>9438</t>
+          <t>10311</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2178,32 +2178,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>11618</t>
+          <t>11808</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>8674</t>
+          <t>8918</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>15169</t>
+          <t>15024</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,34%</t>
         </is>
       </c>
     </row>
@@ -2221,32 +2221,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>122154</t>
+          <t>125248</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>119521</t>
+          <t>123287</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>123899</t>
+          <t>127008</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,22%</t>
+          <t>95,14%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,67%</t>
+          <t>98,01%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2256,32 +2256,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>140423</t>
+          <t>144441</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>137903</t>
+          <t>141604</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>142461</t>
+          <t>146462</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>95,3%</t>
+          <t>95,08%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>93,59%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>96,41%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2291,32 +2291,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>262576</t>
+          <t>269690</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>259025</t>
+          <t>266474</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>265520</t>
+          <t>272580</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>95,81%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>94,47%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>96,83%</t>
         </is>
       </c>
     </row>
@@ -2334,17 +2334,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2369,17 +2369,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2404,17 +2404,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2451,32 +2451,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1589</t>
+          <t>2213</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>1178</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3188</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2486,32 +2486,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5760</t>
+          <t>6203</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4161</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8019</t>
+          <t>8455</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2521,32 +2521,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>7349</t>
+          <t>8416</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>5584</t>
+          <t>6172</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>10209</t>
+          <t>10972</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,98%</t>
         </is>
       </c>
     </row>
@@ -2564,32 +2564,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>106015</t>
+          <t>102253</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>104416</t>
+          <t>100760</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>106770</t>
+          <t>103288</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>97,04%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>98,87%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2599,32 +2599,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>109148</t>
+          <t>109577</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>106889</t>
+          <t>107325</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>110747</t>
+          <t>111401</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>94,64%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>93,02%</t>
+          <t>92,7%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>96,38%</t>
+          <t>96,22%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2634,32 +2634,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>215163</t>
+          <t>211830</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>212303</t>
+          <t>209274</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>216928</t>
+          <t>214074</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>95,41%</t>
+          <t>95,02%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,49%</t>
+          <t>97,2%</t>
         </is>
       </c>
     </row>
@@ -2677,17 +2677,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2712,17 +2712,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2747,17 +2747,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2794,32 +2794,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2622</t>
+          <t>2132</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1554</t>
+          <t>1225</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>4528</t>
+          <t>3524</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2829,32 +2829,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>8938</t>
+          <t>8028</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>6649</t>
+          <t>6122</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>11540</t>
+          <t>10547</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2864,32 +2864,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>11560</t>
+          <t>10160</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>8994</t>
+          <t>7847</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>14880</t>
+          <t>12680</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>5,72%</t>
         </is>
       </c>
     </row>
@@ -2907,32 +2907,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>93733</t>
+          <t>87091</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>91827</t>
+          <t>85699</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>94801</t>
+          <t>87998</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>97,28%</t>
+          <t>97,61%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>95,3%</t>
+          <t>96,05%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>98,63%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2942,32 +2942,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>124993</t>
+          <t>124284</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>122391</t>
+          <t>121765</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>127282</t>
+          <t>126190</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>93,33%</t>
+          <t>93,93%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>91,38%</t>
+          <t>92,03%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>95,04%</t>
+          <t>95,37%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2977,32 +2977,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>218726</t>
+          <t>211375</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>215406</t>
+          <t>208855</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>221292</t>
+          <t>213688</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>94,98%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>93,54%</t>
+          <t>94,28%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>96,46%</t>
         </is>
       </c>
     </row>
@@ -3020,17 +3020,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3055,17 +3055,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3090,17 +3090,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3137,27 +3137,27 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>14191</t>
+          <t>14649</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>11112</t>
+          <t>11865</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>17911</t>
+          <t>18599</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -3172,32 +3172,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>30421</t>
+          <t>30057</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>25865</t>
+          <t>25356</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>35194</t>
+          <t>34885</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3207,32 +3207,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>44613</t>
+          <t>44706</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>38920</t>
+          <t>38912</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>50855</t>
+          <t>50624</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,33%</t>
         </is>
       </c>
     </row>
@@ -3250,22 +3250,22 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>682712</t>
+          <t>709223</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>678992</t>
+          <t>705273</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>685791</t>
+          <t>712007</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>97,96%</t>
+          <t>97,98%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>98,41%</t>
+          <t>98,36%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3285,32 +3285,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>726214</t>
+          <t>767499</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>721441</t>
+          <t>762671</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>730770</t>
+          <t>772200</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>95,35%</t>
+          <t>95,63%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>96,58%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3320,32 +3320,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1408925</t>
+          <t>1476723</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1402683</t>
+          <t>1470805</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1414618</t>
+          <t>1482517</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>97,06%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>96,5%</t>
+          <t>96,67%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>97,32%</t>
+          <t>97,44%</t>
         </is>
       </c>
     </row>
@@ -3363,17 +3363,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3398,17 +3398,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3433,17 +3433,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3763,12 +3763,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2190</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18994</t>
+          <t>19786</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3778,12 +3778,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3798,12 +3798,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>2195</t>
+          <t>2216</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>19874</t>
+          <t>20387</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3813,12 +3813,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,85%</t>
         </is>
       </c>
     </row>
@@ -3876,12 +3876,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>165359</t>
+          <t>164567</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>182163</t>
+          <t>182103</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3891,12 +3891,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>89,7%</t>
+          <t>89,27%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,81%</t>
+          <t>98,78%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3911,12 +3911,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>400715</t>
+          <t>400202</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>418394</t>
+          <t>418373</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3926,12 +3926,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>95,27%</t>
+          <t>95,15%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,48%</t>
+          <t>99,47%</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4876</t>
+          <t>4853</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4106,12 +4106,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3630</t>
+          <t>3499</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19940</t>
+          <t>19817</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4121,12 +4121,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4141,12 +4141,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>4746</t>
+          <t>4735</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>20010</t>
+          <t>21231</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,9%</t>
         </is>
       </c>
     </row>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>224492</t>
+          <t>224515</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -4219,12 +4219,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>294488</t>
+          <t>294611</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>310798</t>
+          <t>310929</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,66%</t>
+          <t>93,7%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,85%</t>
+          <t>98,89%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4254,12 +4254,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>523786</t>
+          <t>522565</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>539050</t>
+          <t>539061</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,32%</t>
+          <t>96,1%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
@@ -4414,12 +4414,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2670</t>
+          <t>3188</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16401</t>
+          <t>15420</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4429,82 +4429,82 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>4,96%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15065</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9876</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>21984</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4,67%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>6,81%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>22782</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>15864</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>33437</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
           <t>5,28%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>15065</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>9588</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>22138</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>4,67%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>2,97%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>6,86%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>22782</t>
-        </is>
-      </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>15049</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>32277</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
-      <c r="V10" s="2" t="inlineStr">
-        <is>
-          <t>2,38%</t>
-        </is>
-      </c>
-      <c r="W10" s="2" t="inlineStr">
-        <is>
-          <t>5,1%</t>
         </is>
       </c>
     </row>
@@ -4527,12 +4527,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>294368</t>
+          <t>295349</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>308099</t>
+          <t>307581</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4542,82 +4542,82 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
+          <t>95,04%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>98,97%</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>307548</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>300629</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>312737</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>95,33%</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>93,19%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>96,94%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>610599</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>599944</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>617517</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>96,4%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
           <t>94,72%</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>99,14%</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>471</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>307548</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>300475</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>313025</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>95,33%</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>93,14%</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>97,03%</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>778</t>
-        </is>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>610599</t>
-        </is>
-      </c>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>601104</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="inlineStr">
-        <is>
-          <t>618332</t>
-        </is>
-      </c>
-      <c r="U11" s="2" t="inlineStr">
-        <is>
-          <t>96,4%</t>
-        </is>
-      </c>
-      <c r="V11" s="2" t="inlineStr">
-        <is>
-          <t>94,9%</t>
-        </is>
-      </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,62%</t>
+          <t>97,5%</t>
         </is>
       </c>
     </row>
@@ -4757,12 +4757,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7562</t>
+          <t>6920</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>43070</t>
+          <t>42383</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4792,12 +4792,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>23537</t>
+          <t>23592</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>40375</t>
+          <t>40544</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4807,12 +4807,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4827,12 +4827,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>24707</t>
+          <t>26319</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>77088</t>
+          <t>76661</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4842,12 +4842,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>7,43%</t>
         </is>
       </c>
     </row>
@@ -4870,12 +4870,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>584094</t>
+          <t>584781</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>619602</t>
+          <t>620244</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4885,12 +4885,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,13%</t>
+          <t>93,24%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,79%</t>
+          <t>98,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4905,12 +4905,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>364427</t>
+          <t>364258</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>381265</t>
+          <t>381210</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4920,12 +4920,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>90,03%</t>
+          <t>89,98%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>94,17%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4940,12 +4940,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>954878</t>
+          <t>955305</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1007259</t>
+          <t>1005647</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4955,12 +4955,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,53%</t>
+          <t>92,57%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>97,45%</t>
         </is>
       </c>
     </row>
@@ -5100,12 +5100,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11678</t>
+          <t>12316</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>27493</t>
+          <t>27858</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5115,12 +5115,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5135,12 +5135,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>34536</t>
+          <t>33779</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>52724</t>
+          <t>52665</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5150,12 +5150,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5170,12 +5170,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>49884</t>
+          <t>50951</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>75052</t>
+          <t>75171</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5185,12 +5185,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>11,42%</t>
         </is>
       </c>
     </row>
@@ -5213,12 +5213,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>311636</t>
+          <t>311271</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>327451</t>
+          <t>326813</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5228,12 +5228,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,89%</t>
+          <t>91,79%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>96,56%</t>
+          <t>96,37%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5248,12 +5248,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>266170</t>
+          <t>266229</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>284358</t>
+          <t>285115</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5263,12 +5263,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>83,47%</t>
+          <t>83,48%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>89,17%</t>
+          <t>89,41%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5283,12 +5283,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>582972</t>
+          <t>582853</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>608140</t>
+          <t>607073</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5298,12 +5298,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>88,59%</t>
+          <t>88,58%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>92,42%</t>
+          <t>92,26%</t>
         </is>
       </c>
     </row>
@@ -5443,12 +5443,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>660</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6059</t>
+          <t>6309</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5463,7 +5463,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5478,12 +5478,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10882</t>
+          <t>7538</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>65854</t>
+          <t>66277</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5493,12 +5493,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5513,12 +5513,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>16171</t>
+          <t>12998</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>56274</t>
+          <t>58199</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5528,12 +5528,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>8,81%</t>
         </is>
       </c>
     </row>
@@ -5556,12 +5556,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>202025</t>
+          <t>201775</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>207421</t>
+          <t>207424</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -5591,12 +5591,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>386788</t>
+          <t>386365</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>441760</t>
+          <t>445104</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5606,12 +5606,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>85,45%</t>
+          <t>85,36%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,6%</t>
+          <t>98,33%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5626,12 +5626,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>604453</t>
+          <t>602528</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>644556</t>
+          <t>647729</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5641,12 +5641,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>91,19%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>98,03%</t>
         </is>
       </c>
     </row>
@@ -5786,12 +5786,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>7099</t>
+          <t>6958</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>16877</t>
+          <t>17712</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5801,12 +5801,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5821,12 +5821,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>17790</t>
+          <t>17092</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>31510</t>
+          <t>30792</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5836,12 +5836,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5856,12 +5856,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>27393</t>
+          <t>26975</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>44379</t>
+          <t>43718</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5871,12 +5871,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>11,37%</t>
         </is>
       </c>
     </row>
@@ -5899,12 +5899,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>134408</t>
+          <t>133573</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>144186</t>
+          <t>144327</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5914,12 +5914,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>88,84%</t>
+          <t>88,29%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>95,4%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5934,12 +5934,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>201763</t>
+          <t>202481</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>215483</t>
+          <t>216181</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5949,12 +5949,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>86,49%</t>
+          <t>86,8%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>92,37%</t>
+          <t>92,67%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5969,12 +5969,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>340179</t>
+          <t>340840</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>357165</t>
+          <t>357583</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5984,12 +5984,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>88,46%</t>
+          <t>88,63%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>92,88%</t>
+          <t>92,99%</t>
         </is>
       </c>
     </row>
@@ -6129,12 +6129,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>42293</t>
+          <t>41826</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>85559</t>
+          <t>83074</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6144,12 +6144,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6164,12 +6164,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>119268</t>
+          <t>118353</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>193488</t>
+          <t>190143</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6179,12 +6179,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6199,12 +6199,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>182556</t>
+          <t>175052</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>267850</t>
+          <t>264126</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6214,12 +6214,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,1%</t>
         </is>
       </c>
     </row>
@@ -6242,12 +6242,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2016476</t>
+          <t>2018961</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2059742</t>
+          <t>2060209</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6257,12 +6257,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>95,93%</t>
+          <t>96,05%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>98,01%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6277,12 +6277,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2037518</t>
+          <t>2040863</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2111738</t>
+          <t>2112653</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6292,12 +6292,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>91,33%</t>
+          <t>91,48%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>94,65%</t>
+          <t>94,7%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6312,12 +6312,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4065191</t>
+          <t>4068915</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4150485</t>
+          <t>4157989</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6327,12 +6327,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>93,82%</t>
+          <t>93,9%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>95,79%</t>
+          <t>95,96%</t>
         </is>
       </c>
     </row>
@@ -9702,12 +9702,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1533</t>
+          <t>1537</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5952</t>
+          <t>5962</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -9717,12 +9717,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -9737,12 +9737,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1183</t>
+          <t>1343</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6571</t>
+          <t>6992</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -9752,12 +9752,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -9772,12 +9772,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>3653</t>
+          <t>3625</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>10646</t>
+          <t>10385</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -9787,12 +9787,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>8,23%</t>
         </is>
       </c>
     </row>
@@ -9815,12 +9815,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>58721</t>
+          <t>58711</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>63140</t>
+          <t>63136</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -9830,12 +9830,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,8%</t>
+          <t>90,78%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,63%</t>
+          <t>97,62%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -9850,12 +9850,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>54969</t>
+          <t>54548</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>60357</t>
+          <t>60197</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -9865,12 +9865,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>89,32%</t>
+          <t>88,64%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,08%</t>
+          <t>97,82%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -9885,12 +9885,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>115568</t>
+          <t>115829</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>122561</t>
+          <t>122589</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -9900,12 +9900,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>91,56%</t>
+          <t>91,77%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,11%</t>
+          <t>97,13%</t>
         </is>
       </c>
     </row>
@@ -10045,12 +10045,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3432</t>
+          <t>3666</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10595</t>
+          <t>11066</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -10060,12 +10060,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -10080,12 +10080,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5218</t>
+          <t>5346</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13650</t>
+          <t>12776</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -10095,12 +10095,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -10115,12 +10115,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>10373</t>
+          <t>10561</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>21413</t>
+          <t>21603</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -10130,12 +10130,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>8,6%</t>
         </is>
       </c>
     </row>
@@ -10158,12 +10158,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>112702</t>
+          <t>112231</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>119865</t>
+          <t>119631</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -10173,12 +10173,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,41%</t>
+          <t>91,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,22%</t>
+          <t>97,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -10193,12 +10193,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>114381</t>
+          <t>115255</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>122813</t>
+          <t>122685</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -10208,12 +10208,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>89,34%</t>
+          <t>90,02%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>95,82%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -10228,12 +10228,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>229914</t>
+          <t>229724</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>240954</t>
+          <t>240766</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -10243,12 +10243,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>95,8%</t>
         </is>
       </c>
     </row>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3165</t>
+          <t>3276</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9799</t>
+          <t>10232</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -10403,12 +10403,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -10423,12 +10423,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4591</t>
+          <t>4507</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12289</t>
+          <t>12323</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -10438,12 +10438,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -10458,12 +10458,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>8908</t>
+          <t>9416</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>19168</t>
+          <t>19278</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -10473,12 +10473,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>7,14%</t>
         </is>
       </c>
     </row>
@@ -10501,12 +10501,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>129568</t>
+          <t>129135</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>136202</t>
+          <t>136091</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -10516,12 +10516,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,97%</t>
+          <t>92,66%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,73%</t>
+          <t>97,65%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -10536,12 +10536,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>118202</t>
+          <t>118168</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>125900</t>
+          <t>125984</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -10551,12 +10551,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,58%</t>
+          <t>90,56%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>96,55%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -10571,12 +10571,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>250690</t>
+          <t>250580</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>260950</t>
+          <t>260442</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -10586,12 +10586,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>92,9%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>96,51%</t>
         </is>
       </c>
     </row>
@@ -10731,12 +10731,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4809</t>
+          <t>5122</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13086</t>
+          <t>13159</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -10746,12 +10746,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -10766,12 +10766,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11640</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>25636</t>
+          <t>25967</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -10781,12 +10781,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -10801,12 +10801,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>18522</t>
+          <t>18385</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>34338</t>
+          <t>33793</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -10816,12 +10816,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>14,25%</t>
         </is>
       </c>
     </row>
@@ -10844,12 +10844,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>104565</t>
+          <t>104492</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>112842</t>
+          <t>112529</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -10859,12 +10859,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,88%</t>
+          <t>88,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,91%</t>
+          <t>95,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -10879,12 +10879,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>93896</t>
+          <t>93565</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>107892</t>
+          <t>107632</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -10894,12 +10894,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>78,55%</t>
+          <t>78,28%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>90,26%</t>
+          <t>90,04%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -10914,12 +10914,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>202845</t>
+          <t>203390</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>218661</t>
+          <t>218798</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -10929,12 +10929,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>85,52%</t>
+          <t>85,75%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>92,25%</t>
         </is>
       </c>
     </row>
@@ -11074,12 +11074,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3527</t>
+          <t>3344</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10222</t>
+          <t>9910</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -11089,12 +11089,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -11109,12 +11109,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>17342</t>
+          <t>17703</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>32229</t>
+          <t>32616</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -11124,12 +11124,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>27,82%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -11144,12 +11144,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>22717</t>
+          <t>21930</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>39992</t>
+          <t>39382</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -11159,12 +11159,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>18,41%</t>
         </is>
       </c>
     </row>
@@ -11187,12 +11187,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>87791</t>
+          <t>88103</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>94486</t>
+          <t>94669</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -11202,12 +11202,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>89,57%</t>
+          <t>89,89%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>96,4%</t>
+          <t>96,59%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -11222,12 +11222,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>83631</t>
+          <t>83244</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>98518</t>
+          <t>98157</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -11237,12 +11237,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>72,18%</t>
+          <t>71,85%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>85,03%</t>
+          <t>84,72%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -11257,12 +11257,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>173882</t>
+          <t>174492</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>191157</t>
+          <t>191944</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -11272,12 +11272,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>81,3%</t>
+          <t>81,59%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>89,38%</t>
+          <t>89,75%</t>
         </is>
       </c>
     </row>
@@ -11417,12 +11417,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3132</t>
+          <t>3278</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14621</t>
+          <t>13124</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -11432,12 +11432,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -11452,12 +11452,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8085</t>
+          <t>7843</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>20314</t>
+          <t>19120</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -11467,12 +11467,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>21,64%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -11487,12 +11487,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>13063</t>
+          <t>12949</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>27807</t>
+          <t>26628</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -11502,12 +11502,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>16,91%</t>
         </is>
       </c>
     </row>
@@ -11530,12 +11530,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>54481</t>
+          <t>55978</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>65970</t>
+          <t>65824</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -11545,12 +11545,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>78,84%</t>
+          <t>81,01%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>95,47%</t>
+          <t>95,26%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -11565,12 +11565,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>68046</t>
+          <t>69240</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>80275</t>
+          <t>80517</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -11580,12 +11580,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>77,01%</t>
+          <t>78,36%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>90,85%</t>
+          <t>91,12%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -11600,12 +11600,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>129655</t>
+          <t>130834</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>144399</t>
+          <t>144513</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -11615,12 +11615,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>82,34%</t>
+          <t>83,09%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>91,7%</t>
+          <t>91,78%</t>
         </is>
       </c>
     </row>
@@ -11760,12 +11760,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2070</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7941</t>
+          <t>7637</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -11775,12 +11775,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -11795,12 +11795,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>20246</t>
+          <t>20425</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>35361</t>
+          <t>36229</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -11810,12 +11810,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>31,91%</t>
+          <t>32,69%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -11830,12 +11830,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>24393</t>
+          <t>23827</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>41368</t>
+          <t>40337</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -11845,12 +11845,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>22,63%</t>
         </is>
       </c>
     </row>
@@ -11873,12 +11873,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>59518</t>
+          <t>59822</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>65389</t>
+          <t>65483</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -11888,12 +11888,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>88,23%</t>
+          <t>88,68%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>97,07%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -11908,12 +11908,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>75460</t>
+          <t>74592</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>90575</t>
+          <t>90396</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -11923,12 +11923,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>68,09%</t>
+          <t>67,31%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>81,73%</t>
+          <t>81,57%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -11943,12 +11943,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>136912</t>
+          <t>137943</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>153887</t>
+          <t>154453</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -11958,12 +11958,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>76,8%</t>
+          <t>77,37%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>86,32%</t>
+          <t>86,63%</t>
         </is>
       </c>
     </row>
@@ -12103,12 +12103,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>33267</t>
+          <t>31871</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>51632</t>
+          <t>50530</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -12118,12 +12118,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -12138,12 +12138,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>86017</t>
+          <t>85481</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>115264</t>
+          <t>115177</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -12153,12 +12153,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -12173,12 +12173,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>120960</t>
+          <t>125199</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>157192</t>
+          <t>161338</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -12188,12 +12188,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>11,25%</t>
         </is>
       </c>
     </row>
@@ -12216,12 +12216,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>627931</t>
+          <t>629033</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>646296</t>
+          <t>647692</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -12231,12 +12231,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>92,4%</t>
+          <t>92,56%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>95,1%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -12251,12 +12251,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>639371</t>
+          <t>639458</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>668618</t>
+          <t>669154</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -12266,12 +12266,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>84,73%</t>
+          <t>84,74%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>88,6%</t>
+          <t>88,67%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -12286,12 +12286,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1277006</t>
+          <t>1272860</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1313238</t>
+          <t>1308999</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -12301,12 +12301,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>89,04%</t>
+          <t>88,75%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>91,57%</t>
+          <t>91,27%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_ANTIDE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANTIDE-Edad-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de antidepresivos en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2690</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,29%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,32%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>3,5%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>7804</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>2284</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1821</t>
+          <t>21604</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>1778</t>
+          <t>7804</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>2152</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>3662</t>
+          <t>20684</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>4,49%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>75891</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>74191</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76638</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65454</t>
+          <t>211851</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>64421</t>
+          <t>198051</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>65971</t>
+          <t>217371</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,81%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>97,25%</t>
+          <t>90,16%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,59%</t>
+          <t>98,96%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>208</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>141345</t>
+          <t>453116</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>139461</t>
+          <t>440236</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>142315</t>
+          <t>458768</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>98,76%</t>
+          <t>98,31%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>97,44%</t>
+          <t>95,51%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,44%</t>
+          <t>99,53%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1074,12 +1074,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>2873</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>9453</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1104,77 +1104,77 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1002</t>
+          <t>10038</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>4571</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2124</t>
+          <t>18449</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>1115</t>
+          <t>12911</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>6184</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>2433</t>
+          <t>23264</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>4,27%</t>
         </is>
       </c>
     </row>
@@ -1187,32 +1187,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>74869</t>
+          <t>259101</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>74328</t>
+          <t>252521</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,85%</t>
+          <t>98,9%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,13%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -1222,72 +1222,72 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>241</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>67046</t>
+          <t>273415</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>65924</t>
+          <t>265004</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>67640</t>
+          <t>278882</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,53%</t>
+          <t>96,46%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,88%</t>
+          <t>93,49%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>98,39%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>392</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>141916</t>
+          <t>532515</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>140598</t>
+          <t>522162</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>142550</t>
+          <t>539242</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>97,63%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,3%</t>
+          <t>95,73%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>98,87%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1422,102 +1422,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>8026</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>3249</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2745</t>
+          <t>16802</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2263</t>
+          <t>16383</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1373</t>
+          <t>10448</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4275</t>
+          <t>23744</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>3391</t>
+          <t>24409</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>2029</t>
+          <t>16765</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>5474</t>
+          <t>36003</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>4,85%</t>
         </is>
       </c>
     </row>
@@ -1530,107 +1530,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>307</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>102833</t>
+          <t>360292</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>101215</t>
+          <t>351516</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>103537</t>
+          <t>365069</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,92%</t>
+          <t>97,82%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,36%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,59%</t>
+          <t>99,12%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>471</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>108452</t>
+          <t>357002</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>106440</t>
+          <t>349641</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>109342</t>
+          <t>362937</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,96%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,14%</t>
+          <t>93,64%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,76%</t>
+          <t>97,2%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1128</t>
+          <t>778</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>211284</t>
+          <t>717294</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>209201</t>
+          <t>705700</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>212646</t>
+          <t>724938</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,42%</t>
+          <t>96,71%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>95,15%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,05%</t>
+          <t>97,74%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>806</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1760,107 +1760,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3738</t>
+          <t>25253</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2370</t>
+          <t>16208</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>38158</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4299</t>
+          <t>34594</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2856</t>
+          <t>26538</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6157</t>
+          <t>45095</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>73</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>8037</t>
+          <t>59847</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>5921</t>
+          <t>46221</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>10827</t>
+          <t>75369</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>8,71%</t>
         </is>
       </c>
     </row>
@@ -1873,107 +1873,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>369</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>141040</t>
+          <t>398688</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>138915</t>
+          <t>385783</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>142408</t>
+          <t>407733</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,42%</t>
+          <t>94,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,95%</t>
+          <t>91,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,36%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>608</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>148245</t>
+          <t>406698</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>146387</t>
+          <t>396197</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>149688</t>
+          <t>414754</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>97,18%</t>
+          <t>92,16%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>89,78%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,13%</t>
+          <t>93,99%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1567</t>
+          <t>977</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>289284</t>
+          <t>805387</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>286494</t>
+          <t>789865</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>291400</t>
+          <t>819013</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,3%</t>
+          <t>93,08%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>96,36%</t>
+          <t>91,29%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,01%</t>
+          <t>94,66%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2103,107 +2103,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4334</t>
+          <t>19672</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2574</t>
+          <t>12879</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6295</t>
+          <t>28966</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7474</t>
+          <t>48147</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5453</t>
+          <t>37998</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>10311</t>
+          <t>59170</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>11808</t>
+          <t>67819</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>8918</t>
+          <t>55660</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>15024</t>
+          <t>82646</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>11,35%</t>
         </is>
       </c>
     </row>
@@ -2216,107 +2216,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>125248</t>
+          <t>348371</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>123287</t>
+          <t>339077</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>127008</t>
+          <t>355164</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>94,65%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>92,13%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>98,01%</t>
+          <t>96,5%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>144441</t>
+          <t>312219</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>141604</t>
+          <t>301196</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>146462</t>
+          <t>322368</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>95,08%</t>
+          <t>86,64%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>93,21%</t>
+          <t>83,58%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>96,41%</t>
+          <t>89,46%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1529</t>
+          <t>869</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>269690</t>
+          <t>660589</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>266474</t>
+          <t>645762</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>272580</t>
+          <t>672748</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>95,81%</t>
+          <t>90,69%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>94,66%</t>
+          <t>88,65%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,83%</t>
+          <t>92,36%</t>
         </is>
       </c>
     </row>
@@ -2329,22 +2329,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2364,22 +2364,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>566</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2399,22 +2399,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>964</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2446,107 +2446,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2213</t>
+          <t>2901</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1178</t>
+          <t>727</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>7543</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6203</t>
+          <t>37013</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4379</t>
+          <t>28812</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8455</t>
+          <t>45365</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>69</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>8416</t>
+          <t>39913</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>6172</t>
+          <t>32137</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>10972</t>
+          <t>50358</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>10,05%</t>
         </is>
       </c>
     </row>
@@ -2559,107 +2559,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>102253</t>
+          <t>228372</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>100760</t>
+          <t>223730</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>103288</t>
+          <t>230546</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>98,75%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>96,74%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,87%</t>
+          <t>99,69%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>417</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>109577</t>
+          <t>233019</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>107325</t>
+          <t>224667</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>111401</t>
+          <t>241220</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>86,29%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>92,7%</t>
+          <t>83,2%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>96,22%</t>
+          <t>89,33%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1298</t>
+          <t>730</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>211830</t>
+          <t>461391</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>209274</t>
+          <t>450946</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>214074</t>
+          <t>469167</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>92,04%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>95,02%</t>
+          <t>89,95%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,2%</t>
+          <t>93,59%</t>
         </is>
       </c>
     </row>
@@ -2672,22 +2672,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2707,22 +2707,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2742,22 +2742,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>799</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2789,107 +2789,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2132</t>
+          <t>12180</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1225</t>
+          <t>7524</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>3524</t>
+          <t>18869</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>8028</t>
+          <t>25892</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>6122</t>
+          <t>18427</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>10547</t>
+          <t>33756</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>63</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>10160</t>
+          <t>38072</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>7847</t>
+          <t>29422</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>12680</t>
+          <t>47577</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>11,29%</t>
         </is>
       </c>
     </row>
@@ -2902,107 +2902,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>212</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>87091</t>
+          <t>152906</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>85699</t>
+          <t>146217</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>87998</t>
+          <t>157562</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>92,62%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>96,05%</t>
+          <t>88,57%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,63%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>395</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>124284</t>
+          <t>230384</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>121765</t>
+          <t>222520</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>126190</t>
+          <t>237849</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>93,93%</t>
+          <t>89,9%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>92,03%</t>
+          <t>86,83%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>95,37%</t>
+          <t>92,81%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1292</t>
+          <t>607</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>211375</t>
+          <t>383290</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>208855</t>
+          <t>373785</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>213688</t>
+          <t>391940</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>95,41%</t>
+          <t>90,96%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>94,28%</t>
+          <t>88,71%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>96,46%</t>
+          <t>93,02%</t>
         </is>
       </c>
     </row>
@@ -3015,22 +3015,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165086</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165086</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165086</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3050,22 +3050,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>440</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256276</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256276</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256276</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3085,22 +3085,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>670</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>421362</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>421362</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>421362</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3132,107 +3132,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>14649</t>
+          <t>70904</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>11865</t>
+          <t>55672</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>18599</t>
+          <t>90150</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>269</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>30057</t>
+          <t>179871</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>25356</t>
+          <t>158359</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>34885</t>
+          <t>202426</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>342</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>44706</t>
+          <t>250775</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>38912</t>
+          <t>227109</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>50624</t>
+          <t>281047</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>6,59%</t>
         </is>
       </c>
     </row>
@@ -3245,107 +3245,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3995</t>
+          <t>1822</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>709223</t>
+          <t>1988996</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>705273</t>
+          <t>1969750</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>712007</t>
+          <t>2004228</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>96,56%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>97,43%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>98,36%</t>
+          <t>97,3%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4290</t>
+          <t>2739</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>767499</t>
+          <t>2024588</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>762671</t>
+          <t>2002033</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>772200</t>
+          <t>2046100</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>96,23%</t>
+          <t>91,84%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>95,63%</t>
+          <t>90,82%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>96,82%</t>
+          <t>92,82%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>8285</t>
+          <t>4561</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1476723</t>
+          <t>4013583</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1470805</t>
+          <t>3983311</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1482517</t>
+          <t>4037249</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>97,06%</t>
+          <t>94,12%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>96,67%</t>
+          <t>93,41%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>97,44%</t>
+          <t>94,67%</t>
         </is>
       </c>
     </row>
@@ -3358,22 +3358,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4078</t>
+          <t>1895</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2059900</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2059900</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2059900</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3393,22 +3393,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>3008</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204459</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204459</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204459</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3428,22 +3428,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8553</t>
+          <t>4903</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4264358</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4264358</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4264358</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3533,7 +3533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos en Andalucia (tasa de respuesta: 99,86%)</t>
+          <t>Consumo de antidepresivos en Barcelona (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3718,107 +3718,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3275</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1537</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5962</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7229</t>
+          <t>3140</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2250</t>
+          <t>1343</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>19786</t>
+          <t>6992</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>7229</t>
+          <t>6415</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>2216</t>
+          <t>3625</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>20387</t>
+          <t>10385</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>8,23%</t>
         </is>
       </c>
     </row>
@@ -3831,107 +3831,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>61398</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>58711</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>63136</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,94%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,78%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,62%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>152</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>177124</t>
+          <t>58400</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>164567</t>
+          <t>54548</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>182103</t>
+          <t>60197</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,08%</t>
+          <t>94,9%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>89,27%</t>
+          <t>88,64%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,78%</t>
+          <t>97,82%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>306</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>413360</t>
+          <t>119799</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>400202</t>
+          <t>115829</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>418373</t>
+          <t>122589</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>98,28%</t>
+          <t>94,92%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>95,15%</t>
+          <t>91,77%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,47%</t>
+          <t>97,13%</t>
         </is>
       </c>
     </row>
@@ -3944,22 +3944,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3979,22 +3979,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>159</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4014,22 +4014,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>322</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4061,107 +4061,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1079</t>
+          <t>6534</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3666</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4853</t>
+          <t>11066</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9759</t>
+          <t>8651</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3499</t>
+          <t>5346</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19817</t>
+          <t>12776</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>10838</t>
+          <t>15185</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>4735</t>
+          <t>10561</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>21231</t>
+          <t>21603</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>8,6%</t>
         </is>
       </c>
     </row>
@@ -4174,107 +4174,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>257</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>228289</t>
+          <t>116763</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>224515</t>
+          <t>112231</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>119631</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,53%</t>
+          <t>94,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>91,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>265</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>304669</t>
+          <t>119380</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>294611</t>
+          <t>115255</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>310929</t>
+          <t>122685</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,9%</t>
+          <t>93,24%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>90,02%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,89%</t>
+          <t>95,82%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>522</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>532958</t>
+          <t>236142</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>522565</t>
+          <t>229724</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>539061</t>
+          <t>240766</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>98,01%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,1%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,13%</t>
+          <t>95,8%</t>
         </is>
       </c>
     </row>
@@ -4287,22 +4287,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>271</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>123297</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>123297</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>123297</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4322,22 +4322,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>286</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4357,22 +4357,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>557</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>251327</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>251327</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>251327</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4404,107 +4404,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7716</t>
+          <t>5893</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3188</t>
+          <t>3276</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15420</t>
+          <t>10232</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15065</t>
+          <t>7520</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9876</t>
+          <t>4507</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>21984</t>
+          <t>12323</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>35</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>22782</t>
+          <t>13414</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>15864</t>
+          <t>9416</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>33437</t>
+          <t>19278</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>7,14%</t>
         </is>
       </c>
     </row>
@@ -4517,107 +4517,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>302</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>303053</t>
+          <t>133474</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>295349</t>
+          <t>129135</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>307581</t>
+          <t>136091</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,52%</t>
+          <t>95,77%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,04%</t>
+          <t>92,66%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,97%</t>
+          <t>97,65%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>294</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>307548</t>
+          <t>122971</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>300629</t>
+          <t>118168</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>312737</t>
+          <t>125984</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>94,24%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>93,19%</t>
+          <t>90,56%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>96,55%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>596</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>610599</t>
+          <t>256444</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>599944</t>
+          <t>250580</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>617517</t>
+          <t>260442</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,4%</t>
+          <t>95,03%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,72%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,5%</t>
+          <t>96,51%</t>
         </is>
       </c>
     </row>
@@ -4630,22 +4630,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4665,22 +4665,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>315</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>130491</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>130491</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>130491</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4700,22 +4700,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>631</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>269858</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>269858</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>269858</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4747,107 +4747,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22600</t>
+          <t>8043</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6920</t>
+          <t>5122</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>42383</t>
+          <t>13159</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31280</t>
+          <t>17143</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>23592</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>40544</t>
+          <t>25967</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>53</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>53880</t>
+          <t>25186</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>26319</t>
+          <t>18385</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>76661</t>
+          <t>33793</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>14,25%</t>
         </is>
       </c>
     </row>
@@ -4860,107 +4860,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>267</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>604564</t>
+          <t>109608</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>584781</t>
+          <t>104492</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>620244</t>
+          <t>112529</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,4%</t>
+          <t>93,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,24%</t>
+          <t>88,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,9%</t>
+          <t>95,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>262</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>373522</t>
+          <t>102389</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>364258</t>
+          <t>93565</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>381210</t>
+          <t>107632</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>92,27%</t>
+          <t>85,66%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>89,98%</t>
+          <t>78,28%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,17%</t>
+          <t>90,04%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>977</t>
+          <t>529</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>978086</t>
+          <t>211997</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>955305</t>
+          <t>203390</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1005647</t>
+          <t>218798</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,78%</t>
+          <t>89,38%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,57%</t>
+          <t>85,75%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>92,25%</t>
         </is>
       </c>
     </row>
@@ -4973,22 +4973,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5008,22 +5008,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5043,22 +5043,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>582</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5090,107 +5090,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>19008</t>
+          <t>6019</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12316</t>
+          <t>3344</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>27858</t>
+          <t>9910</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>42931</t>
+          <t>23581</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>33779</t>
+          <t>17703</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>52665</t>
+          <t>32616</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>66</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>61939</t>
+          <t>29601</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>50951</t>
+          <t>21930</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>75171</t>
+          <t>39382</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>18,41%</t>
         </is>
       </c>
     </row>
@@ -5203,107 +5203,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>214</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>320121</t>
+          <t>91994</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>311271</t>
+          <t>88103</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>326813</t>
+          <t>94669</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>94,39%</t>
+          <t>93,86%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,79%</t>
+          <t>89,89%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>96,59%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>227</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>275963</t>
+          <t>92279</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>266229</t>
+          <t>83244</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>285115</t>
+          <t>98157</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>86,54%</t>
+          <t>79,65%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>83,48%</t>
+          <t>71,85%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>89,41%</t>
+          <t>84,72%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>869</t>
+          <t>441</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>596085</t>
+          <t>184273</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>582853</t>
+          <t>174492</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>607073</t>
+          <t>191944</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>90,59%</t>
+          <t>86,16%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>88,58%</t>
+          <t>81,59%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>92,26%</t>
+          <t>89,75%</t>
         </is>
       </c>
     </row>
@@ -5316,22 +5316,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5351,22 +5351,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>276</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5386,22 +5386,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>507</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5433,107 +5433,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2586</t>
+          <t>6437</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>3278</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6309</t>
+          <t>13124</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>33883</t>
+          <t>12205</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7538</t>
+          <t>7843</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>66277</t>
+          <t>19120</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>21,64%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>42</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>36468</t>
+          <t>18642</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>12998</t>
+          <t>12949</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>58199</t>
+          <t>26628</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>16,91%</t>
         </is>
       </c>
     </row>
@@ -5546,107 +5546,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>205498</t>
+          <t>62665</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>201775</t>
+          <t>55978</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>207424</t>
+          <t>65824</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,76%</t>
+          <t>90,69%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,97%</t>
+          <t>81,01%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,68%</t>
+          <t>95,26%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>200</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>418759</t>
+          <t>76155</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>386365</t>
+          <t>69240</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>445104</t>
+          <t>80517</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>92,51%</t>
+          <t>86,19%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>85,36%</t>
+          <t>78,36%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>98,33%</t>
+          <t>91,12%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>365</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>624259</t>
+          <t>138820</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>602528</t>
+          <t>130834</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>647729</t>
+          <t>144513</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>94,48%</t>
+          <t>88,16%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>91,19%</t>
+          <t>83,09%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>98,03%</t>
+          <t>91,78%</t>
         </is>
       </c>
     </row>
@@ -5659,22 +5659,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5694,22 +5694,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>228</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5729,22 +5729,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>407</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>157462</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>157462</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>157462</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5776,107 +5776,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>11374</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>6958</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>17712</t>
+          <t>7637</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>23760</t>
+          <t>27284</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>17092</t>
+          <t>20425</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>30792</t>
+          <t>36229</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>24,62%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>32,69%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>74</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>35133</t>
+          <t>31535</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>26975</t>
+          <t>23827</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>43718</t>
+          <t>40337</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>22,63%</t>
         </is>
       </c>
     </row>
@@ -5889,107 +5889,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>178</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>139911</t>
+          <t>63208</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>133573</t>
+          <t>59822</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>144327</t>
+          <t>65483</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>93,7%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>88,29%</t>
+          <t>88,68%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>95,4%</t>
+          <t>97,07%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>242</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>209513</t>
+          <t>83537</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>202481</t>
+          <t>74592</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>216181</t>
+          <t>90396</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>89,81%</t>
+          <t>75,38%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>86,8%</t>
+          <t>67,31%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>92,67%</t>
+          <t>81,57%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>420</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>349425</t>
+          <t>146745</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>340840</t>
+          <t>137943</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>357583</t>
+          <t>154453</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>90,86%</t>
+          <t>82,31%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>88,63%</t>
+          <t>77,37%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>92,99%</t>
+          <t>86,63%</t>
         </is>
       </c>
     </row>
@@ -6002,22 +6002,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>191</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>151285</t>
+          <t>67459</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>151285</t>
+          <t>67459</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>151285</t>
+          <t>67459</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6037,22 +6037,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>303</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>233273</t>
+          <t>110821</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>233273</t>
+          <t>110821</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>233273</t>
+          <t>110821</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6072,22 +6072,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>494</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>384558</t>
+          <t>178280</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>384558</t>
+          <t>178280</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>384558</t>
+          <t>178280</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6119,107 +6119,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>64363</t>
+          <t>40452</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>41826</t>
+          <t>31871</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>83074</t>
+          <t>50530</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>222</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>163906</t>
+          <t>99525</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>118353</t>
+          <t>85481</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>190143</t>
+          <t>115177</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>321</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>228270</t>
+          <t>139977</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>175052</t>
+          <t>125199</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>264126</t>
+          <t>161338</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>11,25%</t>
         </is>
       </c>
     </row>
@@ -6232,107 +6232,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1822</t>
+          <t>1537</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2037672</t>
+          <t>639111</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2018961</t>
+          <t>629033</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2060209</t>
+          <t>647692</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>94,05%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>96,05%</t>
+          <t>92,56%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>98,01%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2739</t>
+          <t>1642</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2067100</t>
+          <t>655110</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2040863</t>
+          <t>639458</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2112653</t>
+          <t>669154</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>92,65%</t>
+          <t>86,81%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>84,74%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>94,7%</t>
+          <t>88,67%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>4561</t>
+          <t>3179</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>4104771</t>
+          <t>1294221</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4068915</t>
+          <t>1272860</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4157989</t>
+          <t>1308999</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>94,73%</t>
+          <t>90,24%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>93,9%</t>
+          <t>88,75%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>91,27%</t>
         </is>
       </c>
     </row>
@@ -6345,22 +6345,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2102035</t>
+          <t>679563</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2102035</t>
+          <t>679563</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2102035</t>
+          <t>679563</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6380,22 +6380,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3008</t>
+          <t>1864</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2231006</t>
+          <t>754635</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2231006</t>
+          <t>754635</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2231006</t>
+          <t>754635</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6415,22 +6415,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4903</t>
+          <t>3500</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4333041</t>
+          <t>1434198</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4333041</t>
+          <t>1434198</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4333041</t>
+          <t>1434198</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -9507,7 +9507,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos en Barcelona (tasa de respuesta: 99,66%)</t>
+          <t>Consumo de antidepresivos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -9692,107 +9692,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2690</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,29%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,5%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1821</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,75%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3275</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1537</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5962</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>5,06%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>2,38%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>9,22%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>3140</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>1343</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>6992</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>5,1%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>2,18%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>11,36%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>6415</t>
+          <t>1778</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>3625</t>
+          <t>808</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>10385</t>
+          <t>3662</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>2,56%</t>
         </is>
       </c>
     </row>
@@ -9805,107 +9805,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>372</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>61398</t>
+          <t>75891</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>58711</t>
+          <t>74191</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>63136</t>
+          <t>76638</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,94%</t>
+          <t>98,71%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,78%</t>
+          <t>96,5%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,62%</t>
+          <t>99,68%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>343</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>58400</t>
+          <t>65454</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>54548</t>
+          <t>64421</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>60197</t>
+          <t>65971</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>94,9%</t>
+          <t>98,81%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>88,64%</t>
+          <t>97,25%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>99,59%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>715</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>119799</t>
+          <t>141345</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>115829</t>
+          <t>139461</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>122589</t>
+          <t>142315</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>94,92%</t>
+          <t>98,76%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>97,44%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,13%</t>
+          <t>99,44%</t>
         </is>
       </c>
     </row>
@@ -9918,22 +9918,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -9953,22 +9953,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -9988,22 +9988,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>724</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -10035,107 +10035,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6534</t>
+          <t>114</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3666</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11066</t>
+          <t>655</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8651</t>
+          <t>1002</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5346</t>
+          <t>408</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12776</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>15185</t>
+          <t>1115</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>10561</t>
+          <t>481</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>21603</t>
+          <t>2433</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>1,7%</t>
         </is>
       </c>
     </row>
@@ -10148,107 +10148,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>396</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>116763</t>
+          <t>74869</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>112231</t>
+          <t>74328</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>119631</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,7%</t>
+          <t>99,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,03%</t>
+          <t>99,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,03%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>360</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>119380</t>
+          <t>67046</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>115255</t>
+          <t>65924</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>122685</t>
+          <t>67640</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,24%</t>
+          <t>98,53%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>90,02%</t>
+          <t>96,88%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,82%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>756</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>236142</t>
+          <t>141916</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>229724</t>
+          <t>140598</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>240766</t>
+          <t>142550</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>93,96%</t>
+          <t>99,22%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>91,4%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,8%</t>
+          <t>99,66%</t>
         </is>
       </c>
     </row>
@@ -10261,22 +10261,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>123297</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>123297</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>123297</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -10296,22 +10296,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -10331,22 +10331,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>764</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>251327</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>251327</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>251327</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -10378,107 +10378,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2745</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5893</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3276</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>10232</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,23%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,35%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>7,34%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7520</t>
+          <t>2263</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4507</t>
+          <t>1373</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12323</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>20</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>13414</t>
+          <t>3391</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>9416</t>
+          <t>2029</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>19278</t>
+          <t>5474</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>2,55%</t>
         </is>
       </c>
     </row>
@@ -10491,107 +10491,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>562</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>133474</t>
+          <t>102833</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>129135</t>
+          <t>101215</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>136091</t>
+          <t>103537</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,77%</t>
+          <t>98,92%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,66%</t>
+          <t>97,36%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,65%</t>
+          <t>99,59%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>566</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>122971</t>
+          <t>108452</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>118168</t>
+          <t>106440</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>125984</t>
+          <t>109342</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,24%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,56%</t>
+          <t>96,14%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>98,76%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>256444</t>
+          <t>211284</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>250580</t>
+          <t>209201</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>260442</t>
+          <t>212646</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>98,42%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>92,86%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,51%</t>
+          <t>99,05%</t>
         </is>
       </c>
     </row>
@@ -10604,22 +10604,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>568</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -10639,22 +10639,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>580</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>130491</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>130491</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>130491</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -10674,22 +10674,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>269858</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>269858</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>269858</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -10721,107 +10721,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8043</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5122</t>
+          <t>2370</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13159</t>
+          <t>5863</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17143</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>2856</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>25967</t>
+          <t>6157</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>48</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>25186</t>
+          <t>8037</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>18385</t>
+          <t>5921</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>33793</t>
+          <t>10827</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>3,64%</t>
         </is>
       </c>
     </row>
@@ -10834,107 +10834,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>783</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>109608</t>
+          <t>141040</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>104492</t>
+          <t>138915</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>112529</t>
+          <t>142408</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>93,16%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,82%</t>
+          <t>95,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,65%</t>
+          <t>98,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>784</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>102389</t>
+          <t>148245</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>93565</t>
+          <t>146387</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>107632</t>
+          <t>149688</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>85,66%</t>
+          <t>97,18%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>78,28%</t>
+          <t>95,96%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>90,04%</t>
+          <t>98,13%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>1567</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>211997</t>
+          <t>289284</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>203390</t>
+          <t>286494</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>218798</t>
+          <t>291400</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>89,38%</t>
+          <t>97,3%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>85,75%</t>
+          <t>96,36%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>92,25%</t>
+          <t>98,01%</t>
         </is>
       </c>
     </row>
@@ -10947,22 +10947,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>803</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -10982,22 +10982,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>812</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -11017,22 +11017,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -11064,107 +11064,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6019</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3344</t>
+          <t>2574</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9910</t>
+          <t>6295</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>23581</t>
+          <t>7474</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>17703</t>
+          <t>5453</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>32616</t>
+          <t>10311</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>28,15%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>63</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>29601</t>
+          <t>11808</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>21930</t>
+          <t>8918</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>39382</t>
+          <t>15024</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>5,34%</t>
         </is>
       </c>
     </row>
@@ -11177,107 +11177,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>709</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>91994</t>
+          <t>125248</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>88103</t>
+          <t>123287</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>94669</t>
+          <t>127008</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,86%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>89,89%</t>
+          <t>95,14%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>96,59%</t>
+          <t>98,01%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>820</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>92279</t>
+          <t>144441</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>83244</t>
+          <t>141604</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>98157</t>
+          <t>146462</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>79,65%</t>
+          <t>95,08%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>71,85%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>84,72%</t>
+          <t>96,41%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>1529</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>184273</t>
+          <t>269690</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>174492</t>
+          <t>266474</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>191944</t>
+          <t>272580</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>86,16%</t>
+          <t>95,81%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>81,59%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>89,75%</t>
+          <t>96,83%</t>
         </is>
       </c>
     </row>
@@ -11290,22 +11290,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>733</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -11325,22 +11325,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>859</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -11360,22 +11360,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -11407,107 +11407,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6437</t>
+          <t>2213</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3278</t>
+          <t>1178</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13124</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,99%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12205</t>
+          <t>6203</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7843</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>19120</t>
+          <t>8455</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>21,64%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>51</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>18642</t>
+          <t>8416</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>12949</t>
+          <t>6172</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>26628</t>
+          <t>10972</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>4,98%</t>
         </is>
       </c>
     </row>
@@ -11520,107 +11520,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>633</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>62665</t>
+          <t>102253</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>55978</t>
+          <t>100760</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>65824</t>
+          <t>103288</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>90,69%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>81,01%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>95,26%</t>
+          <t>98,87%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>665</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>76155</t>
+          <t>109577</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>69240</t>
+          <t>107325</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>80517</t>
+          <t>111401</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>86,19%</t>
+          <t>94,64%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>78,36%</t>
+          <t>92,7%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>91,12%</t>
+          <t>96,22%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>1298</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>138820</t>
+          <t>211830</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>130834</t>
+          <t>209274</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>144513</t>
+          <t>214074</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>88,16%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>83,09%</t>
+          <t>95,02%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>91,78%</t>
+          <t>97,2%</t>
         </is>
       </c>
     </row>
@@ -11633,22 +11633,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>646</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -11668,22 +11668,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>703</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -11703,22 +11703,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>157462</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>157462</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>157462</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -11750,107 +11750,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4251</t>
+          <t>2132</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1225</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7637</t>
+          <t>3524</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>27284</t>
+          <t>8028</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>20425</t>
+          <t>6122</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>36229</t>
+          <t>10547</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>24,62%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>32,69%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>69</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>31535</t>
+          <t>10160</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>23827</t>
+          <t>7847</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>40337</t>
+          <t>12680</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>5,72%</t>
         </is>
       </c>
     </row>
@@ -11863,107 +11863,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>540</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>63208</t>
+          <t>87091</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>59822</t>
+          <t>85699</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>65483</t>
+          <t>87998</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>97,61%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>88,68%</t>
+          <t>96,05%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>97,07%</t>
+          <t>98,63%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>752</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>83537</t>
+          <t>124284</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>74592</t>
+          <t>121765</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>90396</t>
+          <t>126190</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>75,38%</t>
+          <t>93,93%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>67,31%</t>
+          <t>92,03%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>81,57%</t>
+          <t>95,37%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>146745</t>
+          <t>211375</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>137943</t>
+          <t>208855</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>154453</t>
+          <t>213688</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>82,31%</t>
+          <t>95,41%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>77,37%</t>
+          <t>94,28%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>86,63%</t>
+          <t>96,46%</t>
         </is>
       </c>
     </row>
@@ -11976,22 +11976,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>67459</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>67459</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>67459</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -12011,22 +12011,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>806</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>110821</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>110821</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>110821</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -12046,22 +12046,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>178280</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>178280</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>178280</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -12093,107 +12093,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>40452</t>
+          <t>14649</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>31871</t>
+          <t>11865</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>50530</t>
+          <t>18599</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>99525</t>
+          <t>30057</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>85481</t>
+          <t>25356</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>115177</t>
+          <t>34885</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>268</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>139977</t>
+          <t>44706</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>125199</t>
+          <t>38912</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>161338</t>
+          <t>50624</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>3,33%</t>
         </is>
       </c>
     </row>
@@ -12206,107 +12206,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>639111</t>
+          <t>709223</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>629033</t>
+          <t>705273</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>647692</t>
+          <t>712007</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>94,05%</t>
+          <t>97,98%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>97,43%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>98,36%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>1642</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>655110</t>
+          <t>767499</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>639458</t>
+          <t>762671</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>669154</t>
+          <t>772200</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>86,81%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>84,74%</t>
+          <t>95,63%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>88,67%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>3179</t>
+          <t>8285</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1294221</t>
+          <t>1476723</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1272860</t>
+          <t>1470805</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1308999</t>
+          <t>1482517</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>90,24%</t>
+          <t>97,06%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>88,75%</t>
+          <t>96,67%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>91,27%</t>
+          <t>97,44%</t>
         </is>
       </c>
     </row>
@@ -12319,22 +12319,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>679563</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>679563</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>679563</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -12354,22 +12354,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1864</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>754635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>754635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>754635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -12389,22 +12389,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>3500</t>
+          <t>8553</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1434198</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1434198</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1434198</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
